--- a/results/AdaBoostClassifier_LogisticRegression.xlsx
+++ b/results/AdaBoostClassifier_LogisticRegression.xlsx
@@ -493,157 +493,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
                  SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=0.0001,
+                 AdaBoostClassifier(estimator=LogisticRegression(C=5,
+                                                                 max_iter=1000,
+                                                                 random_state=42,
+                                                                 solver='liblinear'),
+                                    n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6476190476190476</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[1 0 1 0 0 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5682773109243697</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02528520839499841</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5326330532212885</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.05115871885747763</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
+                ('model',
+                 AdaBoostClassifier(estimator=LogisticRegression(C=1,
                                                                  max_iter=1000,
                                                                  random_state=42,
                                                                  solver='saga'),
                                     n_estimators=5, random_state=42))])</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.7476190476190475</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6666666666666665</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.5754591785619166</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.04864842845497677</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5327009521758308</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.07490163258875762</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=3,
-                                                                 max_iter=1000,
-                                                                 random_state=42,
-                                                                 solver='saga'),
-                                    n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
       <c r="B3" t="n">
-        <v>0.7468805704099821</v>
+        <v>0.6476190476190476</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 3}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
+          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 0 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5782385364635668</v>
+        <v>0.6012067840834964</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04093206432261516</v>
+        <v>0.02447057900489374</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5375195365597056</v>
+        <v>0.5441617742987606</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07057910521984277</v>
+        <v>0.0506619745728888</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=5,
+                 AdaBoostClassifier(estimator=LogisticRegression(C=0.0001,
+                                                                 class_weight='balanced',
                                                                  max_iter=1000,
-                                                                 penalty='l1',
                                                                  random_state=42,
-                                                                 solver='saga'),
-                                    n_estimators=10, random_state=42))])</t>
+                                                                 solver='liblinear'),
+                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7422459893048128</v>
+        <v>0.6285714285714284</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 1 0 1 0 0 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5638368375957385</v>
+        <v>0.6036706349206349</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04745853770383325</v>
+        <v>0.02423087222189142</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5111223615103161</v>
+        <v>0.5386243386243385</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07140085839249682</v>
+        <v>0.06417016374807523</v>
       </c>
     </row>
   </sheetData>

--- a/results/AdaBoostClassifier_LogisticRegression.xlsx
+++ b/results/AdaBoostClassifier_LogisticRegression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,106 +497,213 @@
                 ('selector',
                  SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=5,
+                 AdaBoostClassifier(estimator=LogisticRegression(C=3,
                                                                  max_iter=1000,
                                                                  random_state=42,
-                                                                 solver='liblinear'),
-                                    n_estimators=10, random_state=42))])</t>
+                                                                 solver='saga'),
+                                    random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6476190476190476</v>
+        <v>0.7047619047619047</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 3}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 1 1 1 1 1 1 1]</t>
+          <t>[0 0 1 0 0 1 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5682773109243697</v>
+        <v>0.6176666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02528520839499841</v>
+        <v>0.02250861618237601</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5326330532212885</v>
+        <v>0.5615238095238095</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05115871885747763</v>
+        <v>0.0481743073251333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 AdaBoostClassifier(estimator=LogisticRegression(C=3,
+                                                                 class_weight='balanced',
+                                                                 max_iter=1000,
+                                                                 random_state=42,
+                                                                 solver='saga'),
+                                    random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6285714285714284</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 3}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[0 1 0 1 1 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5593112244897959</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02097903554945518</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5183673469387754</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.04995927608673544</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 AdaBoostClassifier(estimator=LogisticRegression(C=0.0001,
+                                                                 class_weight='balanced',
+                                                                 max_iter=1000,
+                                                                 random_state=42,
+                                                                 solver='saga'),
+                                    random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6285714285714287</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5714285714285715</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[0 0 0 1 1 1 1 0 1 0 0 1]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>42</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6042424242424242</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.02880239252578566</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5478787878787879</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.06461422295917255</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
                  SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
                                                      random_state=42))),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=1,
+                 AdaBoostClassifier(estimator=LogisticRegression(C=0.0001,
+                                                                 class_weight='balanced',
                                                                  max_iter=1000,
                                                                  random_state=42,
                                                                  solver='saga'),
-                                    n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6476190476190476</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 0 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6012067840834964</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.02447057900489374</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5441617742987606</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0506619745728888</v>
+                                    random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6095238095238095</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 0 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5905643738977071</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02121079951592237</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.51657848324515</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.05448520659315167</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f45a99f0f40&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=LogisticRegression(C=0.0001,
                                                                  class_weight='balanced',
@@ -606,41 +713,41 @@
                                     n_estimators=5, random_state=42))])</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.6285714285714284</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 1 0 1 0 0 1]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6036706349206349</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.02423087222189142</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5386243386243385</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.06417016374807523</v>
+      <c r="B6" t="n">
+        <v>0.638095238095238</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6c418fd0&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 0 1 0 1 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5943027210884353</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.02016137469583393</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5346938775510204</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.05071880798722873</v>
       </c>
     </row>
   </sheetData>

--- a/results/AdaBoostClassifier_LogisticRegression.xlsx
+++ b/results/AdaBoostClassifier_LogisticRegression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,261 +493,207 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=3,
+                 AdaBoostClassifier(estimator=LogisticRegression(C=5,
                                                                  max_iter=1000,
+                                                                 penalty='l1',
                                                                  random_state=42,
                                                                  solver='saga'),
-                                    random_state=42))])</t>
+                                    n_estimators=10, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7047619047619047</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 3}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0 0 1 0 0 1 1 0 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6176666666666667</v>
+        <v>0.5840590042302468</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02250861618237601</v>
+        <v>0.05591843829297147</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5615238095238095</v>
+        <v>0.4921327813733433</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0481743073251333</v>
+        <v>0.101750067053729</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=3,
-                                                                 class_weight='balanced',
-                                                                 max_iter=1000,
-                                                                 random_state=42,
-                                                                 solver='saga'),
-                                    random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6285714285714284</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 3}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0 1 0 1 1 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5593112244897959</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.02097903554945518</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5183673469387754</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.04995927608673544</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=0.0001,
-                                                                 class_weight='balanced',
-                                                                 max_iter=1000,
-                                                                 random_state=42,
-                                                                 solver='saga'),
-                                    random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6285714285714287</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5714285714285715</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[0 0 0 1 1 1 1 0 1 0 0 1]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6042424242424242</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.02880239252578566</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5478787878787879</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.06461422295917255</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
                  SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
                                                      random_state=42))),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=0.0001,
-                                                                 class_weight='balanced',
+                 AdaBoostClassifier(estimator=LogisticRegression(C=1,
+                                                                 max_iter=1000,
+                                                                 penalty='l1',
+                                                                 random_state=42,
+                                                                 solver='saga'),
+                                    n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7131889678948502</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4817864591962289</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.04676116391007129</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4429500946514521</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.08644439357164531</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 AdaBoostClassifier(estimator=LogisticRegression(C=5,
                                                                  max_iter=1000,
                                                                  random_state=42,
                                                                  solver='saga'),
                                     random_state=42))])</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.6095238095238095</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 0 1 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5905643738977071</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.02121079951592237</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.51657848324515</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.05448520659315167</v>
+      <c r="B4" t="n">
+        <v>0.7312362637362637</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 1 1 0 1 0]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5482298329310277</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03661654850034363</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5178763235499478</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0752678360559887</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f45a99f0f40&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fccd050df10&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=LogisticRegression(C=0.0001,
-                                                                 class_weight='balanced',
                                                                  max_iter=1000,
                                                                  random_state=42,
                                                                  solver='liblinear'),
-                                    n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.638095238095238</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6c418fd0&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 0 1 0 1 1 0 0 0]</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5943027210884353</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.02016137469583393</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5346938775510204</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.05071880798722873</v>
+                                    n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7989122315592904</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd03572e0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>99</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5560229226802896</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.04856591114005458</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5406059718911381</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.08996402833381004</v>
       </c>
     </row>
   </sheetData>

--- a/results/AdaBoostClassifier_LogisticRegression.xlsx
+++ b/results/AdaBoostClassifier_LogisticRegression.xlsx
@@ -650,7 +650,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fccd050df10&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f9104567d30&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=LogisticRegression(C=0.0001,
                                                                  max_iter=1000,
@@ -664,7 +664,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd03572e0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f910449d250&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
         </is>
       </c>
       <c r="D5" t="n">

--- a/results/AdaBoostClassifier_LogisticRegression.xlsx
+++ b/results/AdaBoostClassifier_LogisticRegression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,249 +451,379 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 AdaBoostClassifier(estimator=LogisticRegression(C=1,
+                                                                 class_weight='balanced',
+                                                                 max_iter=1000,
+                                                                 random_state=42,
+                                                                 solver='liblinear'),
+                                    n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6721428571428572</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5831669369306512</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4875974274481737</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7346938775510203</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5403186200448173</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4511644160151623</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6714641080312721</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5802985074626866</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 1 0 1 0 0 1 0 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
                 ('model',
                  AdaBoostClassifier(estimator=LogisticRegression(C=5,
+                                                                 class_weight='balanced',
                                                                  max_iter=1000,
                                                                  penalty='l1',
                                                                  random_state=42,
                                                                  solver='saga'),
-                                    n_estimators=10, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.7058823529411764</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.5840590042302468</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.05591843829297147</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.4921327813733433</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.101750067053729</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=1,
-                                                                 max_iter=1000,
-                                                                 penalty='l1',
-                                                                 random_state=42,
-                                                                 solver='saga'),
-                                    n_estimators=10, random_state=42))])</t>
+                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7131889678948502</v>
+        <v>0.589642857142857</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 0]</t>
-        </is>
+        <v>0.461430069005588</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4109373361681054</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6818181818181818</v>
       </c>
       <c r="G3" t="n">
+        <v>0.4238156962810887</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3613473748473748</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5373076923076924</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5089230769230769</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0 1 0 1 1 0 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0 1 1 0 1 1 0 0 0 0 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.4817864591962289</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.04676116391007129</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.4429500946514521</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.08644439357164531</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
                 ('model',
                  AdaBoostClassifier(estimator=LogisticRegression(C=5,
-                                                                 max_iter=1000,
-                                                                 random_state=42,
-                                                                 solver='saga'),
-                                    random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7312362637362637</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 1 1 0 1 0]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5482298329310277</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.03661654850034363</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5178763235499478</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0752678360559887</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f9104567d30&gt;),
-                ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=0.0001,
+                                                                 class_weight='balanced',
                                                                  max_iter=1000,
                                                                  random_state=42,
                                                                  solver='liblinear'),
                                     n_estimators=10, random_state=42))])</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>0.6308333333333334</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5516095151798583</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4657949756336852</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5150394568285667</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4249571172555043</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6308573853989814</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.552258064516129</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 1 0 1 1 0 1 0 0 0 1 1 0 1 1 0 1 1 1 1 0 0 0 1 1 0 0 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae06643a0&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=LogisticRegression(C=5,
+                                                                 class_weight='balanced',
+                                                                 max_iter=1000,
+                                                                 random_state=42,
+                                                                 solver='liblinear'),
+                                    random_state=42))])</t>
+        </is>
+      </c>
       <c r="B5" t="n">
-        <v>0.7989122315592904</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f910449d250&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae05d90a0&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 0 1 1 1]</t>
-        </is>
+        <v>0.5093602333958402</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4478302695694</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5365853658536586</v>
       </c>
       <c r="G5" t="n">
+        <v>0.4704375963888855</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4012537382102599</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5909247757073843</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5475362318840579</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 1 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 1 1 1 1 1 0 1 1 0 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>99</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.5560229226802896</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.04856591114005458</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5406059718911381</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.08996402833381004</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae05cf100&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=LogisticRegression(C=1,
+                                                                 class_weight='balanced',
+                                                                 max_iter=1000,
+                                                                 penalty='l1',
+                                                                 random_state=42,
+                                                                 solver='liblinear'),
+                                    n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6854761904761906</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae06320d0&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.558689697165354</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4739227533295329</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5159236725796832</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.411802528921173</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6310477657935285</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5833898305084745</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 0 1 1 0 1 1 1 1 1 0 1 1 0 1 1 0 1 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/AdaBoostClassifier_LogisticRegression.xlsx
+++ b/results/AdaBoostClassifier_LogisticRegression.xlsx
@@ -513,59 +513,62 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=1,
-                                                                 class_weight='balanced',
+                 AdaBoostClassifier(estimator=LogisticRegression(C=5,
                                                                  max_iter=1000,
+                                                                 penalty='l1',
                                                                  random_state=42,
-                                                                 solver='liblinear'),
+                                                                 solver='saga'),
                                     n_estimators=10, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6721428571428572</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5831669369306512</v>
+        <v>0.5723676963620047</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4875974274481737</v>
+        <v>0.5215124262139187</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7346938775510203</v>
+        <v>0.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5403186200448173</v>
+        <v>0.5334805720736272</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4511644160151623</v>
+        <v>0.4847654584221748</v>
       </c>
       <c r="I2" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6714641080312721</v>
+        <v>0.6596379803112099</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5802985074626866</v>
+        <v>0.6032338308457712</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 1 0 1 0 0 1 0 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 1 1 0 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -575,10 +578,9 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=5,
-                                                                 class_weight='balanced',
+                 AdaBoostClassifier(estimator=LogisticRegression(C=0.0001,
                                                                  max_iter=1000,
                                                                  penalty='l1',
                                                                  random_state=42,
@@ -587,48 +589,48 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.589642857142857</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
+          <t>{'selector': None, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.461430069005588</v>
+        <v>0.4773453735546231</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4109373361681054</v>
+        <v>0.4405008495777726</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4238156962810887</v>
+        <v>0.4315136760761198</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3613473748473748</v>
+        <v>0.4248754578754579</v>
       </c>
       <c r="I3" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5373076923076924</v>
+        <v>0.5598690671031098</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5089230769230769</v>
+        <v>0.4994871794871795</v>
       </c>
       <c r="L3" t="n">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 0 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0 1 1 0 1 1 0 0 0 0 0 1 1 1 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -638,59 +640,61 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fa034091910&gt;),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=5,
+                 AdaBoostClassifier(estimator=LogisticRegression(C=0.001,
                                                                  class_weight='balanced',
                                                                  max_iter=1000,
                                                                  random_state=42,
                                                                  solver='liblinear'),
-                                    n_estimators=10, random_state=42))])</t>
+                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6308333333333334</v>
+        <v>0.6959706959706959</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa03404f640&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.001}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5516095151798583</v>
+        <v>0.5474990330408427</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4657949756336852</v>
+        <v>0.4933154927509767</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5150394568285667</v>
+        <v>0.5108881358712153</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4249571172555043</v>
+        <v>0.4529678699436764</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6308573853989814</v>
+        <v>0.6254838709677418</v>
       </c>
       <c r="K4" t="n">
-        <v>0.552258064516129</v>
+        <v>0.5909677419354837</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6153846153846154</v>
+        <v>1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 0 1 1 0 1 0 0 0 1 1 0 1 1 0 1 1 1 1 0 0 0 1 1 0 0 1 1 1 1 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -700,61 +704,61 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae06643a0&gt;),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=5,
-                                                                 class_weight='balanced',
+                 AdaBoostClassifier(estimator=LogisticRegression(C=3,
                                                                  max_iter=1000,
                                                                  random_state=42,
-                                                                 solver='liblinear'),
-                                    random_state=42))])</t>
+                                                                 solver='saga'),
+                                    n_estimators=10, random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.7669230769230768</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae05d90a0&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 3}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5093602333958402</v>
+        <v>0.5072585339700348</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4478302695694</v>
+        <v>0.4697612451960277</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4704375963888855</v>
+        <v>0.4731771707371918</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4012537382102599</v>
+        <v>0.4285127674258109</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5909247757073843</v>
+        <v>0.5838805087252292</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5475362318840579</v>
+        <v>0.555072463768116</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 1 1 1 1 1 0 1 1 0 1 0 1 0 1 0 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -764,62 +768,61 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae05cf100&gt;),
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=1,
-                                                                 class_weight='balanced',
+                 AdaBoostClassifier(estimator=LogisticRegression(C=5,
                                                                  max_iter=1000,
                                                                  penalty='l1',
                                                                  random_state=42,
-                                                                 solver='liblinear'),
+                                                                 solver='saga'),
                                     n_estimators=10, random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6854761904761906</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae06320d0&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.558689697165354</v>
+        <v>0.5642639621471427</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4739227533295329</v>
+        <v>0.4939514628497679</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5159236725796832</v>
+        <v>0.5179437738360022</v>
       </c>
       <c r="H6" t="n">
-        <v>0.411802528921173</v>
+        <v>0.4465812483185364</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6310477657935285</v>
+        <v>0.640677966101695</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5833898305084745</v>
+        <v>0.5830508474576273</v>
       </c>
       <c r="L6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 0 1 1 0 1 1 1 1 1 0 1 1 0 1 1 0 1 1 0 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">

--- a/results/AdaBoostClassifier_LogisticRegression.xlsx
+++ b/results/AdaBoostClassifier_LogisticRegression.xlsx
@@ -513,179 +513,180 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+          <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=5,
-                                                                 max_iter=1000,
-                                                                 penalty='l1',
-                                                                 random_state=42,
-                                                                 solver='saga'),
-                                    n_estimators=10, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.7499999999999999</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5723676963620047</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5215124262139187</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.5334805720736272</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.4847654584221748</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6596379803112099</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.6032338308457712</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
-                ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=0.0001,
-                                                                 max_iter=1000,
-                                                                 penalty='l1',
-                                                                 random_state=42,
-                                                                 solver='saga'),
-                                    n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7499999999999999</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4773453735546231</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.4405008495777726</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4315136760761198</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.4248754578754579</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5598690671031098</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.4994871794871795</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fa034091910&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd15c50a8e0&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=LogisticRegression(C=0.001,
                                                                  class_weight='balanced',
                                                                  max_iter=1000,
                                                                  random_state=42,
                                                                  solver='liblinear'),
+                                    n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7189743589743589</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd15c4787c0&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.001}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.461189340887457</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4208105018974584</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.823529411764706</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4611512305818457</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.418478835978836</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.4820844896700586</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4480676328502415</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 0 0 1 0 1 1 1 0 0 0 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd15c70c1f0&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=LogisticRegression(C=3,
+                                                                 class_weight='balanced',
+                                                                 max_iter=1000,
+                                                                 random_state=42,
+                                                                 solver='liblinear'),
                                     n_estimators=5, random_state=42))])</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>0.6796037296037296</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd15c1913a0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 3}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4584153659534136</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4032062301627519</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7567567567567567</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4451953854377775</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4289803312629399</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5004316990440949</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4275362318840579</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 0 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd15c1915e0&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=LogisticRegression(C=3,
+                                                                 class_weight='balanced',
+                                                                 max_iter=1000,
+                                                                 random_state=42,
+                                                                 solver='saga'),
+                                    random_state=42))])</t>
+        </is>
+      </c>
       <c r="B4" t="n">
-        <v>0.6959706959706959</v>
+        <v>0.6660317460317461</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa03404f640&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd15c713730&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 3}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5474990330408427</v>
+        <v>0.4249604970844431</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4933154927509767</v>
+        <v>0.3715995896464646</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8837209302325582</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5108881358712153</v>
+        <v>0.4277908729255168</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4529678699436764</v>
+        <v>0.3822414434523809</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6254838709677418</v>
+        <v>0.4386805555555555</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5909677419354837</v>
+        <v>0.3975</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -694,7 +695,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[0 1 1 0 1 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -706,47 +707,47 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd21f672760&gt;),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=3,
+                 AdaBoostClassifier(estimator=LogisticRegression(C=0.0001,
+                                                                 class_weight='balanced',
                                                                  max_iter=1000,
                                                                  random_state=42,
-                                                                 solver='saga'),
+                                                                 solver='liblinear'),
                                     n_estimators=10, random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7669230769230768</v>
+        <v>0.7599999999999999</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 3}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd15c0bae50&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5072585339700348</v>
+        <v>0.4184476714198709</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4697612451960277</v>
+        <v>0.3749191882798439</v>
       </c>
       <c r="F5" t="n">
         <v>0.7368421052631579</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4731771707371918</v>
+        <v>0.4405589646078986</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4285127674258109</v>
+        <v>0.383127764767109</v>
       </c>
       <c r="I5" t="n">
         <v>0.5833333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5838805087252292</v>
+        <v>0.414519906323185</v>
       </c>
       <c r="K5" t="n">
-        <v>0.555072463768116</v>
+        <v>0.3912568306010928</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -768,52 +769,52 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd15c14a730&gt;),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(C=5,
+                 AdaBoostClassifier(estimator=LogisticRegression(C=0.0001,
+                                                                 class_weight='balanced',
                                                                  max_iter=1000,
-                                                                 penalty='l1',
                                                                  random_state=42,
-                                                                 solver='saga'),
-                                    n_estimators=10, random_state=42))])</t>
+                                                                 solver='liblinear'),
+                                    random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.7081573981573981</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd15c214490&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5642639621471427</v>
+        <v>0.4800822517027923</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4939514628497679</v>
+        <v>0.3994435415330937</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5179437738360022</v>
+        <v>0.5011317084361564</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4465812483185364</v>
+        <v>0.4133848614072494</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="J6" t="n">
-        <v>0.640677966101695</v>
+        <v>0.4837256027554535</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5830508474576273</v>
+        <v>0.418407960199005</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -822,7 +823,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 0 1 1 1 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">
